--- a/pred_ohlcv/54_21/2020-01-20 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>523329.7684266667</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>423639.9879266667</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>450684.5067266667</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>412979.9506635088</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>102067.4320852358</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,7 +704,7 @@
         <v>36879.26636915188</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>67484.07226915187</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>79267.43269324151</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -912,7 +912,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>24938.99422251805</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>23300.20572251805</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-122779.6739774819</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-117714.338977482</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-119838.592477482</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-92293.08837748197</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-94150.77127748197</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-526306.7866543225</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-531534.1972543225</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-545298.5742543224</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-552014.7737543224</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-557996.8340543224</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-518638.8571952716</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-499866.9651952716</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-494525.9651952716</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>523329.7684266667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>423639.9879266667</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>450684.5067266667</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>221826.4851852358</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>36879.26636915188</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>67484.07226915187</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>79267.43269324151</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -912,7 +912,7 @@
         <v>22888.62752251805</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>24938.99422251805</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>23300.20572251805</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-122779.6739774819</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-122772.6739774819</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-117714.338977482</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-119838.592477482</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-92293.08837748197</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-94150.77127748197</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-531534.1972543225</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-533541.9101543225</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-518638.8571952716</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-499866.9651952716</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-499858.9651952716</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-494525.9651952716</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-484865.1569952716</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-478288.8332952716</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-360925.5083381557</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
